--- a/data/trans_dic/P55$pareja-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Clase-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1806183511187205</v>
+        <v>0.1691491572548846</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2600587235302195</v>
+        <v>0.2082275034913632</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2183720156460668</v>
+        <v>0.2117772361469631</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06442152183902999</v>
+        <v>0.06425935086778103</v>
       </c>
       <c r="H5" s="5" t="inlineStr"/>
       <c r="I5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03616957859485615</v>
+        <v>0.04187135357475408</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1742487166407323</v>
+        <v>0.1574077733400943</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1781142172444473</v>
+        <v>0.1769317074788257</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1557851585063516</v>
+        <v>0.1608598956573356</v>
       </c>
     </row>
     <row r="6">
@@ -750,38 +750,38 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8943440748285733</v>
+        <v>0.8135781966846566</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8043058721355538</v>
+        <v>0.82479745777207</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9085085723948484</v>
+        <v>0.8998916861748019</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6456849867238256</v>
+        <v>0.6695598504590002</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5365679632542902</v>
+        <v>0.5359175696324279</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="n">
-        <v>0.709823148793042</v>
+        <v>0.708059056030289</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3149414773957607</v>
+        <v>0.3293761202627498</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6048306939925809</v>
+        <v>0.5637750329163456</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6559513260113284</v>
+        <v>0.6675211573065524</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.7255024072370768</v>
+        <v>0.687804634726167</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4453172282230421</v>
+        <v>0.4185183932386209</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.405875385594073</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.3325718133562592</v>
+        <v>0.3325718133562591</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0</v>
@@ -840,16 +840,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2087055590172565</v>
+        <v>0.2186851092558392</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1375514591637244</v>
+        <v>0.2415611797334901</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1579925589303628</v>
+        <v>0.1534111412971254</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1535482833203063</v>
+        <v>0.1797719983338071</v>
       </c>
       <c r="G8" s="5" t="inlineStr"/>
       <c r="H8" s="5" t="n">
@@ -857,19 +857,19 @@
       </c>
       <c r="I8" s="5" t="inlineStr"/>
       <c r="J8" s="5" t="n">
-        <v>0.06085600662274666</v>
+        <v>0.06908260909677953</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.11374412046619</v>
+        <v>0.1478127353418269</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1749134388767802</v>
+        <v>0.1757569910133246</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.09471867074405627</v>
+        <v>0.09508775878279142</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1619235605767592</v>
+        <v>0.1526066232253886</v>
       </c>
     </row>
     <row r="9">
@@ -880,36 +880,36 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8306118725680104</v>
+        <v>0.8819952769610921</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8984094299349928</v>
+        <v>0.9093752268962449</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7363482479258359</v>
+        <v>0.7371664788267533</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5367571397286938</v>
+        <v>0.5518289882062656</v>
       </c>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.6081364490113637</v>
+        <v>0.6278365089705306</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.3663607003893524</v>
+        <v>0.3711082936055892</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5898397753814405</v>
+        <v>0.623392830787615</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6819486978575934</v>
+        <v>0.703696364932149</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.4817396019408187</v>
+        <v>0.5072977916366963</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.4290214906061066</v>
+        <v>0.403249590758872</v>
       </c>
     </row>
     <row r="10">
@@ -933,7 +933,7 @@
         <v>0.3005276417506065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.4114646165682646</v>
+        <v>0.4114646165682644</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0</v>
@@ -968,38 +968,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2494521577465899</v>
+        <v>0.2576844324465388</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1725698678045208</v>
+        <v>0.1818624840284919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1076960582427069</v>
+        <v>0.1112533578908532</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.255375419033375</v>
+        <v>0.2452576234387829</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
-        <v>0.06379421348087373</v>
+        <v>0.0634163847808256</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.09595893940047592</v>
+        <v>0.09071574812057601</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1546728933902052</v>
+        <v>0.1613663841307704</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.172386624482696</v>
+        <v>0.1649375086878136</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0773616974802278</v>
+        <v>0.07867151792366661</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2028164267993962</v>
+        <v>0.1970857947013425</v>
       </c>
     </row>
     <row r="12">
@@ -1010,38 +1010,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.693006658180309</v>
+        <v>0.697129776780072</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6297030136744669</v>
+        <v>0.6210653340838908</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5252773710484558</v>
+        <v>0.5468885314711636</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5894349049638025</v>
+        <v>0.584482284578552</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.4471747274796339</v>
+        <v>0.4984631564175817</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3195770095402853</v>
+        <v>0.3200056738317459</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3580470139025582</v>
+        <v>0.3470168378532632</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.5009495806102661</v>
+        <v>0.5047383117266203</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.4751796706057168</v>
+        <v>0.4807579393885038</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3698006665359416</v>
+        <v>0.3515868745371803</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.4147566580645665</v>
+        <v>0.4106858500880926</v>
       </c>
     </row>
     <row r="13">
@@ -1065,7 +1065,7 @@
         <v>0.4675744490865774</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3218095784672687</v>
+        <v>0.3218095784672688</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1115452798046361</v>
@@ -1100,40 +1100,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3676749179150958</v>
+        <v>0.3782197918114699</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.28356426564239</v>
+        <v>0.2751453937615598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3307910740450067</v>
+        <v>0.3152554094086543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2402306737463618</v>
+        <v>0.2331085551550278</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0354895627564801</v>
+        <v>0.03487946015253</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04530007946876332</v>
+        <v>0.04788237941305506</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.1294618057624943</v>
+        <v>0.1399539791570482</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1228712150734759</v>
+        <v>0.1286883214017503</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2930697244750257</v>
+        <v>0.3059509516773258</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2438469407691092</v>
+        <v>0.2427734696477776</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2789142550908237</v>
+        <v>0.2751142707464352</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2175357029780801</v>
+        <v>0.2163116802680289</v>
       </c>
     </row>
     <row r="15">
@@ -1144,40 +1144,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5891795199282597</v>
+        <v>0.6037797144614373</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5521838415224057</v>
+        <v>0.5282638349446253</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6185961287856363</v>
+        <v>0.607086892407666</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4233685651855359</v>
+        <v>0.4170488388653807</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3041215503273931</v>
+        <v>0.2708061442338761</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3797153421036997</v>
+        <v>0.3956283731041946</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.5053572437109519</v>
+        <v>0.5202806795094336</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2993696703311047</v>
+        <v>0.310993701499646</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4950316509184137</v>
+        <v>0.4892813041810933</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4572746151725349</v>
+        <v>0.4662367078155504</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.5092655106341769</v>
+        <v>0.503226709411462</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3479672809314364</v>
+        <v>0.3508427694810562</v>
       </c>
     </row>
     <row r="16">
@@ -1236,40 +1236,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2897729057480459</v>
+        <v>0.2907618124438124</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1751217937836887</v>
+        <v>0.2031232884607423</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3151353228807387</v>
+        <v>0.3163407288664629</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3007607113120413</v>
+        <v>0.2979780339671116</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.06024248627151182</v>
+        <v>0.05980034319722782</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0849302171244207</v>
+        <v>0.0845969129480007</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07892907504234491</v>
+        <v>0.07905856481602469</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0781720351833006</v>
+        <v>0.07461977776761894</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1701031427734876</v>
+        <v>0.1704846178076797</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.1410362284805793</v>
+        <v>0.1383920528136168</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.212215024456936</v>
+        <v>0.2107195277669276</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1487979870483412</v>
+        <v>0.146615083223724</v>
       </c>
     </row>
     <row r="18">
@@ -1280,40 +1280,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7582767135308002</v>
+        <v>0.7644567880654218</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.4974983904491782</v>
+        <v>0.5224637389948678</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5879045633895233</v>
+        <v>0.5890930961258345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.5729292554804454</v>
+        <v>0.5816992010441498</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2986477571662708</v>
+        <v>0.3183069905766135</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2488250554962098</v>
+        <v>0.2446347363842909</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2894719746303943</v>
+        <v>0.3120621547754474</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1732205845709097</v>
+        <v>0.17305362382211</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.4173179246314481</v>
+        <v>0.4193278630674294</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2870165332931525</v>
+        <v>0.2883726148770229</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.4011835811149119</v>
+        <v>0.3993383256069105</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.251646468488195</v>
+        <v>0.2549370159936746</v>
       </c>
     </row>
     <row r="19">
@@ -1357,7 +1357,7 @@
         <v>0.1694722046206369</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09257322874652775</v>
+        <v>0.09257322874652778</v>
       </c>
     </row>
     <row r="20">
@@ -1372,28 +1372,28 @@
       <c r="E20" s="5" t="inlineStr"/>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.05337979042746659</v>
+        <v>0.05756410026427521</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09395968115392714</v>
+        <v>0.09137672760668249</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.112707758769114</v>
+        <v>0.1078499612873091</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06237493985085972</v>
+        <v>0.06247229355934218</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05568048962806869</v>
+        <v>0.0542579439242207</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.09395968115392714</v>
+        <v>0.09137672760668249</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.112707758769114</v>
+        <v>0.1078499612873091</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.05926885373935916</v>
+        <v>0.06133346414978011</v>
       </c>
     </row>
     <row r="21">
@@ -1408,28 +1408,28 @@
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.1502752084733929</v>
+        <v>0.1519247818664399</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.2166591383558986</v>
+        <v>0.2194802071440044</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2527890401324019</v>
+        <v>0.2569031911138542</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1340411570919528</v>
+        <v>0.1312680568870105</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1562389637920764</v>
+        <v>0.1490697977476826</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2166591383558986</v>
+        <v>0.2194802071440044</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2527890401324019</v>
+        <v>0.2569031911138542</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1313005943035734</v>
+        <v>0.1306525008614725</v>
       </c>
     </row>
     <row r="22">
@@ -1488,40 +1488,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3990990758796476</v>
+        <v>0.3927919396533059</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3103692095760891</v>
+        <v>0.3089694678916448</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3655085366249783</v>
+        <v>0.3668498396276057</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2988040336553295</v>
+        <v>0.2990263191389345</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.07467356715150032</v>
+        <v>0.07314970349650399</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1149190605854778</v>
+        <v>0.1124289418430009</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1258706397291052</v>
+        <v>0.1254189388464647</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1041230235997107</v>
+        <v>0.1024550710787296</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2010695570804684</v>
+        <v>0.1994395537853819</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1964581126630247</v>
+        <v>0.1996914080344873</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2138542290846987</v>
+        <v>0.2162289108141912</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1735901041022127</v>
+        <v>0.1772623124056114</v>
       </c>
     </row>
     <row r="24">
@@ -1532,40 +1532,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.572002725873816</v>
+        <v>0.5845679426895661</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.4840744276628496</v>
+        <v>0.4902804845628937</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.5241453321262012</v>
+        <v>0.5351558344725688</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4248757658471115</v>
+        <v>0.4199445983915107</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1565721811640426</v>
+        <v>0.1534534152063914</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2020698595972893</v>
+        <v>0.2017964051568726</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.227535928956947</v>
+        <v>0.2292288765594928</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1555641759984517</v>
+        <v>0.1546088435171077</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2834284296269888</v>
+        <v>0.2890948580625488</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2853729194738575</v>
+        <v>0.2864560277995524</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3070668146028008</v>
+        <v>0.3079221264447169</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2306889694487021</v>
+        <v>0.2323537030228287</v>
       </c>
     </row>
     <row r="25">
@@ -1838,38 +1838,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1832</v>
+        <v>1716</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1828</v>
+        <v>1463</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>2730</v>
+        <v>2647</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>542</v>
+        <v>628</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>4097</v>
+        <v>3701</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2685</v>
+        <v>2667</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4283</v>
+        <v>4422</v>
       </c>
     </row>
     <row r="7">
@@ -1880,38 +1880,38 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>9072</v>
+        <v>8253</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>6756</v>
+        <v>6928</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6385</v>
+        <v>6324</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8072</v>
+        <v>8370</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7172</v>
+        <v>7164</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="n">
-        <v>5711</v>
+        <v>5696</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>4721</v>
+        <v>4938</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>14220</v>
+        <v>13254</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>7649</v>
+        <v>7784</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>10935</v>
+        <v>10367</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>12243</v>
+        <v>11506</v>
       </c>
     </row>
     <row r="8">
@@ -2014,16 +2014,16 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>2254</v>
+        <v>2361</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1308</v>
+        <v>2297</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1699</v>
+        <v>1650</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2880</v>
+        <v>3372</v>
       </c>
       <c r="G10" s="6" t="inlineStr"/>
       <c r="H10" s="6" t="n">
@@ -2031,19 +2031,19 @@
       </c>
       <c r="I10" s="6" t="inlineStr"/>
       <c r="J10" s="6" t="n">
-        <v>945</v>
+        <v>1073</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1837</v>
+        <v>2387</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>3204</v>
+        <v>3220</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>1654</v>
+        <v>1661</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5552</v>
+        <v>5233</v>
       </c>
     </row>
     <row r="11">
@@ -2054,36 +2054,36 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8969</v>
+        <v>9524</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>8544</v>
+        <v>8648</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7919</v>
+        <v>7927</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>10069</v>
+        <v>10352</v>
       </c>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>5356</v>
+        <v>5530</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>5690</v>
+        <v>5764</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>9526</v>
+        <v>10068</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>12492</v>
+        <v>12890</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>8414</v>
+        <v>8860</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>14711</v>
+        <v>13827</v>
       </c>
     </row>
     <row r="12">
@@ -2186,38 +2186,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>4495</v>
+        <v>4643</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>4217</v>
+        <v>4444</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1775</v>
+        <v>1834</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5820</v>
+        <v>5589</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>1212</v>
+        <v>1205</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2291</v>
+        <v>2166</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>4074</v>
+        <v>4250</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>7488</v>
+        <v>7165</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2536</v>
+        <v>2579</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9464</v>
+        <v>9197</v>
       </c>
     </row>
     <row r="15">
@@ -2228,38 +2228,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12487</v>
+        <v>12561</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>15387</v>
+        <v>15176</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8658</v>
+        <v>9014</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>13433</v>
+        <v>13320</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>8497</v>
+        <v>9471</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>5209</v>
+        <v>5216</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8548</v>
+        <v>8285</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>13194</v>
+        <v>13294</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>20641</v>
+        <v>20883</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>12123</v>
+        <v>11526</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19354</v>
+        <v>19164</v>
       </c>
     </row>
     <row r="16">
@@ -2362,40 +2362,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>25967</v>
+        <v>26712</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>19223</v>
+        <v>18652</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>13187</v>
+        <v>12567</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>18531</v>
+        <v>17982</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>944</v>
+        <v>998</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>4250</v>
+        <v>4594</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5141</v>
+        <v>5384</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>27562</v>
+        <v>28774</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>21611</v>
+        <v>21516</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>20274</v>
+        <v>19998</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>25882</v>
+        <v>25736</v>
       </c>
     </row>
     <row r="19">
@@ -2406,40 +2406,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>41611</v>
+        <v>42643</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>37432</v>
+        <v>35810</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>24660</v>
+        <v>24201</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>32658</v>
+        <v>32171</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7123</v>
+        <v>6343</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7912</v>
+        <v>8244</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>16589</v>
+        <v>17079</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>12525</v>
+        <v>13012</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>46556</v>
+        <v>46015</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>40526</v>
+        <v>41321</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>37019</v>
+        <v>36580</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>41400</v>
+        <v>41743</v>
       </c>
     </row>
     <row r="20">
@@ -2542,40 +2542,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4659</v>
+        <v>4675</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>6310</v>
+        <v>7319</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>14915</v>
+        <v>14972</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9889</v>
+        <v>9798</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>2194</v>
+        <v>2178</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>7097</v>
+        <v>7069</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>4185</v>
+        <v>4192</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7875</v>
+        <v>7517</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>8929</v>
+        <v>8949</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>16867</v>
+        <v>16550</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>21296</v>
+        <v>21145</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>19882</v>
+        <v>19591</v>
       </c>
     </row>
     <row r="23">
@@ -2586,40 +2586,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12192</v>
+        <v>12292</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>17926</v>
+        <v>18825</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27825</v>
+        <v>27881</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>18838</v>
+        <v>19127</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>10875</v>
+        <v>11591</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>20792</v>
+        <v>20441</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>15348</v>
+        <v>16546</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>17450</v>
+        <v>17433</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>21906</v>
+        <v>22012</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>34324</v>
+        <v>34486</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>40258</v>
+        <v>40073</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>33625</v>
+        <v>34064</v>
       </c>
     </row>
     <row r="24">
@@ -2722,28 +2722,28 @@
       <c r="E26" s="6" t="inlineStr"/>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>7689</v>
+        <v>8292</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>13445</v>
+        <v>13076</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>16598</v>
+        <v>15882</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>9487</v>
+        <v>9501</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>8072</v>
+        <v>7865</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>13445</v>
+        <v>13076</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>16598</v>
+        <v>15882</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>9145</v>
+        <v>9463</v>
       </c>
     </row>
     <row r="27">
@@ -2758,28 +2758,28 @@
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>21647</v>
+        <v>21885</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>31003</v>
+        <v>31407</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>37226</v>
+        <v>37832</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>20386</v>
+        <v>19965</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>22649</v>
+        <v>21610</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>31003</v>
+        <v>31407</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>37226</v>
+        <v>37832</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>20259</v>
+        <v>20159</v>
       </c>
     </row>
     <row r="28">
@@ -2882,40 +2882,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>50517</v>
+        <v>49719</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>45366</v>
+        <v>45161</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>44394</v>
+        <v>44557</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>49683</v>
+        <v>49720</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>17244</v>
+        <v>16892</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>32012</v>
+        <v>31318</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>33250</v>
+        <v>33131</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>36345</v>
+        <v>35763</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>71883</v>
+        <v>71300</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>83441</v>
+        <v>84815</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>82467</v>
+        <v>83383</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>89457</v>
+        <v>91350</v>
       </c>
     </row>
     <row r="31">
@@ -2926,40 +2926,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>72403</v>
+        <v>73993</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>70756</v>
+        <v>71663</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>63662</v>
+        <v>64999</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>70646</v>
+        <v>69826</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>36156</v>
+        <v>35436</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>56289</v>
+        <v>56212</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>60107</v>
+        <v>60554</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>54302</v>
+        <v>53968</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>101326</v>
+        <v>103352</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>121206</v>
+        <v>121666</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>118412</v>
+        <v>118742</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>118883</v>
+        <v>119740</v>
       </c>
     </row>
     <row r="32">
